--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E94BBF-B23C-4D3A-90A5-22D390F03B65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9737A9-27CF-4092-8DE4-56A5D53D9763}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1649,8 +1649,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1703,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,8 +2032,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>11</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,8 +2046,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>12</v>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,8 +2060,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>13</v>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
